--- a/data/trans_orig/P64DS1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64DS1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A810BD-FAC6-41E9-BCA5-90310920EFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE6384D-F648-4EAF-9254-F02D39A7671F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{26EE0838-40F9-4CB2-B1BD-D42159F3EE7F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C7CD4E4-ECA7-425E-8201-80FB8A6F5D93}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="213">
   <si>
     <t>Población según el método de desplazamiento que utiliza para ir al trabajo / respuesta 1 en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -74,592 +74,583 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>En otros medios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>En transporte público (autobús, metro, tren)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>En vehículo particular (automóvil, moto)</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>En bicicleta</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>Andando</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>En otros medios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>En transporte público (autobús, metro, tren)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>En vehículo particular (automóvil, moto)</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>En bicicleta</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>Andando</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
   <si>
     <t>66,35%</t>
   </si>
   <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>19,35%</t>
+    <t>19,6%</t>
   </si>
   <si>
     <t>24,48%</t>
@@ -668,19 +659,19 @@
     <t>36,4%</t>
   </si>
   <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
   </si>
   <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1095,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AB13D3-FC18-4723-90E9-096B09828CA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93E0531-4DBD-4ABA-AFF5-FD698C67A1A4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1327,7 +1318,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -1336,13 +1327,13 @@
         <v>8150</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -1351,19 +1342,19 @@
         <v>9065</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>106</v>
@@ -1372,13 +1363,13 @@
         <v>107574</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -1387,13 +1378,13 @@
         <v>29689</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -1402,19 +1393,19 @@
         <v>137263</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1423,13 +1414,13 @@
         <v>1553</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1453,19 +1444,19 @@
         <v>1553</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7">
         <v>25</v>
@@ -1474,13 +1465,13 @@
         <v>20446</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -1489,13 +1480,13 @@
         <v>47672</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>84</v>
@@ -1504,13 +1495,13 @@
         <v>68118</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,13 +1516,13 @@
         <v>134198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -1540,13 +1531,13 @@
         <v>89167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>263</v>
@@ -1555,18 +1546,18 @@
         <v>223364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1578,13 +1569,13 @@
         <v>29811</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -1593,13 +1584,13 @@
         <v>28277</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>69</v>
@@ -1608,13 +1599,13 @@
         <v>58088</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,13 +1620,13 @@
         <v>6985</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -1644,13 +1635,13 @@
         <v>3166</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -1659,13 +1650,13 @@
         <v>10151</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,13 +1671,13 @@
         <v>40977</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -1695,13 +1686,13 @@
         <v>49804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -1710,34 +1701,34 @@
         <v>90781</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7">
         <v>752</v>
       </c>
       <c r="D14" s="7">
-        <v>877615</v>
+        <v>877616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -1746,13 +1737,13 @@
         <v>498909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>1409</v>
@@ -1761,19 +1752,19 @@
         <v>1376524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7">
         <v>15</v>
@@ -1782,13 +1773,13 @@
         <v>15864</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -1797,13 +1788,13 @@
         <v>19409</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -1812,19 +1803,19 @@
         <v>35272</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="7">
         <v>251</v>
@@ -1833,13 +1824,13 @@
         <v>264721</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>491</v>
@@ -1848,13 +1839,13 @@
         <v>343227</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>742</v>
@@ -1863,13 +1854,13 @@
         <v>607948</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,16 +1872,16 @@
         <v>1092</v>
       </c>
       <c r="D17" s="7">
-        <v>1235973</v>
+        <v>1235974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>1265</v>
@@ -1899,13 +1890,13 @@
         <v>942791</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>2357</v>
@@ -1914,18 +1905,18 @@
         <v>2178764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1937,13 +1928,13 @@
         <v>41029</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -1952,13 +1943,13 @@
         <v>23801</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -1967,13 +1958,13 @@
         <v>64831</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +1979,13 @@
         <v>2981</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2003,13 +1994,13 @@
         <v>1622</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2018,13 +2009,13 @@
         <v>4603</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,13 +2030,13 @@
         <v>8705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -2054,13 +2045,13 @@
         <v>14301</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -2069,19 +2060,19 @@
         <v>23007</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7">
         <v>252</v>
@@ -2090,13 +2081,13 @@
         <v>280993</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>357</v>
@@ -2105,13 +2096,13 @@
         <v>268469</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>609</v>
@@ -2120,19 +2111,19 @@
         <v>549462</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="7">
         <v>9</v>
@@ -2141,13 +2132,13 @@
         <v>8399</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2156,13 +2147,13 @@
         <v>5455</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -2171,19 +2162,19 @@
         <v>13853</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="7">
         <v>124</v>
@@ -2192,13 +2183,13 @@
         <v>120755</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
@@ -2207,13 +2198,13 @@
         <v>155488</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>352</v>
@@ -2222,13 +2213,13 @@
         <v>276243</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2234,13 @@
         <v>462862</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -2258,13 +2249,13 @@
         <v>469137</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M24" s="7">
         <v>1079</v>
@@ -2273,13 +2264,13 @@
         <v>931999</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2287,13 @@
         <v>74390</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -2311,13 +2302,13 @@
         <v>55735</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -2326,13 +2317,13 @@
         <v>130125</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2338,13 @@
         <v>10126</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2362,13 +2353,13 @@
         <v>4788</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -2377,13 +2368,13 @@
         <v>14914</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2389,13 @@
         <v>50598</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="H27" s="7">
         <v>91</v>
@@ -2413,13 +2404,13 @@
         <v>72255</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>141</v>
@@ -2428,19 +2419,19 @@
         <v>122853</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7">
         <v>1110</v>
@@ -2449,13 +2440,13 @@
         <v>1266182</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>1055</v>
@@ -2464,13 +2455,13 @@
         <v>797067</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>2165</v>
@@ -2479,19 +2470,19 @@
         <v>2063249</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
@@ -2500,13 +2491,13 @@
         <v>25815</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -2515,13 +2506,13 @@
         <v>24863</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -2530,19 +2521,19 @@
         <v>50678</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="7">
         <v>400</v>
@@ -2551,13 +2542,13 @@
         <v>405922</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>778</v>
@@ -2566,13 +2557,13 @@
         <v>546386</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>1178</v>
@@ -2581,13 +2572,13 @@
         <v>952308</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2593,13 @@
         <v>1833033</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H31" s="7">
         <v>2032</v>
@@ -2617,13 +2608,13 @@
         <v>1501094</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M31" s="7">
         <v>3699</v>
@@ -2632,18 +2623,18 @@
         <v>3334127</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P64DS1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64DS1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE6384D-F648-4EAF-9254-F02D39A7671F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA6D99C-CB99-4C83-BD81-03CA8DE0C995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C7CD4E4-ECA7-425E-8201-80FB8A6F5D93}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15176AC2-025D-4C86-B7BF-2FACCE7D018C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1086,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93E0531-4DBD-4ABA-AFF5-FD698C67A1A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8009BCBA-828A-4C76-87A7-70E0D4361939}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
